--- a/res/testcase/statisticalAnalysis/parkVipMonthIncome.xlsx
+++ b/res/testcase/statisticalAnalysis/parkVipMonthIncome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>动作</t>
   </si>
@@ -321,13 +321,22 @@
     <t>6</t>
   </si>
   <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>ParkVipMonthIncomePage.搜索按钮</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>ParkVipMonthIncomePage.记录列表</t>
   </si>
   <si>
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>2筛选月票分月收入汇总界面</t>
@@ -346,15 +355,6 @@
   </si>
   <si>
     <t>ParkVipMonthIncomePage.最近三个月</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>ParkVipMonthIncomePage.搜索按钮</t>
   </si>
   <si>
     <t>9</t>
@@ -396,8 +396,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -417,7 +417,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,18 +446,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +476,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -467,10 +499,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,35 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,17 +553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,187 +575,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,21 +798,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -823,6 +808,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,15 +850,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,17 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,133 +914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1142,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Actions"/>
-      <sheetName val="001_filterComeAndOutReport"/>
+      <sheetName val="001_checkComeAndOutReport"/>
       <sheetName val="002_exportComeAndOutReport"/>
     </sheetNames>
     <sheetDataSet>
@@ -1800,13 +1800,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
@@ -1908,41 +1908,59 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>103</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C7 C8 C2:C4 C9:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C8 C9 C2:C4 C10:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1957,8 +1975,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2059,7 +2077,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2067,13 +2085,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2082,28 +2100,28 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3"/>
     </row>

--- a/res/testcase/statisticalAnalysis/parkVipMonthIncome.xlsx
+++ b/res/testcase/statisticalAnalysis/parkVipMonthIncome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>动作</t>
   </si>
@@ -321,13 +321,40 @@
     <t>6</t>
   </si>
   <si>
+    <t>点击停车场下拉框</t>
+  </si>
+  <si>
+    <t>ParkVipMonthIncomePage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>勾选停车场</t>
+  </si>
+  <si>
+    <t>ParkVipMonthIncomePage.选择停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>点击搜索按钮</t>
   </si>
   <si>
     <t>ParkVipMonthIncomePage.搜索按钮</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2筛选月票分月收入汇总界面</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>ParkVipMonthIncomePage.记录列表</t>
@@ -336,37 +363,13 @@
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2筛选月票分月收入汇总界面</t>
-  </si>
-  <si>
     <t>1通道进出报表界面</t>
   </si>
   <si>
-    <t>点击操作时间框</t>
-  </si>
-  <si>
-    <t>ParkVipMonthIncomePage.操作时间框</t>
-  </si>
-  <si>
-    <t>点击最近三个月</t>
-  </si>
-  <si>
-    <t>ParkVipMonthIncomePage.最近三个月</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>点击导出</t>
   </si>
   <si>
     <t>ParkVipMonthIncomePage.导出</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>点击确认</t>
@@ -396,8 +399,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -418,37 +421,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,17 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,6 +457,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,31 +508,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,6 +554,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -575,61 +578,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,120 +759,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +800,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -808,21 +835,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,11 +857,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,21 +897,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +905,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,91 +917,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,40 +1016,34 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,8 +1446,8 @@
   <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1800,10 +1803,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1923,36 +1926,68 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>106</v>
+      <c r="D11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1995,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C8 C9 C2:C4 C10:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C8 C9 C10 C11 C2:C4 C12:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1975,15 +2010,15 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2077,7 +2112,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -2085,13 +2120,13 @@
         <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
+      <c r="D7" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2100,64 +2135,66 @@
         <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -2166,15 +2203,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>97</v>
@@ -2184,12 +2221,15 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C10 C11 C12 C13 C14 C2:C3 C7:C9">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C9">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C10 C11 C12 C13 C14 C2:C3">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
